--- a/data/outputs/OR/34.xlsx
+++ b/data/outputs/OR/34.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ175"/>
+  <dimension ref="A1:BR175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>3762978</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1144,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4553019</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1351,6 +1366,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1556,6 +1572,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>3911796</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1769,6 +1790,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1982,6 +2004,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>3930615</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2195,6 +2222,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>2537167</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2408,6 +2440,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>2158922</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2613,6 +2650,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>48555613</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2826,6 +2868,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>2380603</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3047,6 +3094,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3252,6 +3300,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>2364854</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3473,6 +3526,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>2846768</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3686,6 +3744,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>2667904</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3907,6 +3970,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>5064283</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4116,6 +4184,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4321,6 +4390,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>3818942</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4546,6 +4620,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>2307011</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4763,6 +4842,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4088463</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4980,6 +5064,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>3072789</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5193,6 +5282,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>2687134</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5398,6 +5492,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5611,6 +5706,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5828,6 +5924,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>4136378</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6049,6 +6150,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>2893562</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6262,6 +6368,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6467,6 +6574,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4655830</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6688,6 +6800,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4601725</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6901,6 +7018,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7106,6 +7224,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4503379</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7319,6 +7442,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>2856877</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7524,6 +7652,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>2393717</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7741,6 +7874,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7962,6 +8096,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>15368342</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8171,6 +8310,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8384,6 +8524,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>3987158</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8605,6 +8750,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>2973947</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8814,6 +8964,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9035,6 +9186,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>3745033</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9248,6 +9404,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9465,6 +9622,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>4814290</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9682,6 +9844,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>3082792</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9891,6 +10058,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10112,6 +10280,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>3454975</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10325,6 +10498,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4153772</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10546,6 +10724,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>3073261</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10767,6 +10950,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>3966956</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10984,6 +11172,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11189,6 +11378,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11406,6 +11596,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11629,6 +11820,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>4848491</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11850,6 +12046,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>4056617</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12071,6 +12272,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>3077247</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12276,6 +12482,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12493,6 +12700,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>3106540</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12702,6 +12914,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>4240359</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12915,6 +13132,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>3996213</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13136,6 +13358,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13341,6 +13564,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13550,6 +13774,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>18688772</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13763,6 +13992,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>2426906</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13968,6 +14202,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>2843749</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14173,6 +14412,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>2356370</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14386,6 +14630,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14611,6 +14856,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14820,6 +15066,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15025,6 +15272,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15230,6 +15478,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15439,6 +15688,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15652,6 +15902,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>3831730</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15857,6 +16112,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16078,6 +16334,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>2561634</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16291,6 +16552,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16508,6 +16770,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16709,6 +16972,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>2876951</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16930,6 +17198,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>3948468</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17135,6 +17408,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>2502002</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17348,6 +17626,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17569,6 +17848,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17782,6 +18062,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17991,6 +18272,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>3021616</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18204,6 +18490,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18413,6 +18700,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18634,6 +18922,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>3768239</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18847,6 +19140,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19052,6 +19346,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19269,6 +19564,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>3074269</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19482,6 +19782,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>2846038</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19695,6 +20000,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19912,6 +20218,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20129,6 +20436,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20346,6 +20654,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20563,6 +20872,11 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>4856552</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20780,6 +21094,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>3067130</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21001,6 +21320,11 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>2586130</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21218,6 +21542,11 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr">
+        <is>
+          <t>3074281</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21423,6 +21752,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>4732785</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21636,6 +21970,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>3793855</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21845,6 +22184,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22058,6 +22398,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22275,6 +22616,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>4393261</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22484,6 +22830,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22701,6 +23048,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>2457705</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22906,6 +23258,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23127,6 +23480,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>4059689</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23332,6 +23690,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>2845515</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23549,6 +23912,11 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>2991834</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23770,6 +24138,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23975,6 +24344,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24188,6 +24558,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24401,6 +24772,11 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr">
+        <is>
+          <t>2901159</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24606,6 +24982,11 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>4595752</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24811,6 +25192,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25020,6 +25402,11 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>4124123</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25225,6 +25612,11 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr">
+        <is>
+          <t>2150417</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25430,6 +25822,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25647,6 +26040,11 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t>2527075</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25860,6 +26258,11 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t>3074280</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26065,6 +26468,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>2425902</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26270,6 +26678,11 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t>3070773</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26475,6 +26888,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26680,6 +27094,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26885,6 +27300,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27098,6 +27514,11 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr">
+        <is>
+          <t>4948344</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27311,6 +27732,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27528,6 +27950,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27737,6 +28160,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27954,6 +28378,11 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>2732043</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28163,6 +28592,11 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr">
+        <is>
+          <t>2403108</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28376,6 +28810,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28597,6 +29032,11 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr">
+        <is>
+          <t>3714508</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28802,6 +29242,11 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>4595759</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29015,6 +29460,11 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>3878519</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29228,6 +29678,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29433,6 +29884,11 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr">
+        <is>
+          <t>3798522</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29646,6 +30102,11 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr">
+        <is>
+          <t>2594390</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29851,6 +30312,11 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr">
+        <is>
+          <t>3780334</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30064,6 +30530,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30269,6 +30736,11 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr">
+        <is>
+          <t>2522648</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30474,6 +30946,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>2160963</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30687,6 +31164,11 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr">
+        <is>
+          <t>4580436</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30908,6 +31390,11 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr">
+        <is>
+          <t>49474347</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31121,6 +31608,11 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr">
+        <is>
+          <t>2757207</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31334,6 +31826,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31547,6 +32040,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31752,6 +32246,11 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr">
+        <is>
+          <t>2949812</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31957,6 +32456,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32162,6 +32662,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32375,6 +32876,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32592,6 +33094,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32805,6 +33308,11 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr">
+        <is>
+          <t>4005533</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33018,6 +33526,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33231,6 +33740,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33452,6 +33962,11 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr">
+        <is>
+          <t>2541398</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33665,6 +34180,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33870,6 +34386,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34083,6 +34600,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34288,6 +34806,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34501,6 +35020,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34722,6 +35242,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34931,6 +35452,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35144,6 +35666,11 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr">
+        <is>
+          <t>3074278</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35357,6 +35884,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35562,6 +36090,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35767,6 +36296,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35984,6 +36514,11 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr">
+        <is>
+          <t>3857900</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36197,6 +36732,11 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr">
+        <is>
+          <t>3728044</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36414,6 +36954,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36619,6 +37160,11 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr">
+        <is>
+          <t>3119454</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -36824,6 +37370,11 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr">
+        <is>
+          <t>3074271</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37041,6 +37592,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37246,6 +37798,11 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr">
+        <is>
+          <t>2455134</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37439,6 +37996,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -37640,6 +38198,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
